--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Roll_Number</t>
   </si>
@@ -43,9 +43,21 @@
     <t>X001X1OZV3</t>
   </si>
   <si>
+    <t>BCM24310</t>
+  </si>
+  <si>
+    <t>8902442220225</t>
+  </si>
+  <si>
     <t>Student X001X1OZV3</t>
   </si>
   <si>
+    <t>Student BCM24310</t>
+  </si>
+  <si>
+    <t>Student 8902442220225</t>
+  </si>
+  <si>
     <t>—</t>
   </si>
   <si>
@@ -55,6 +67,9 @@
     <t>2025-10-14</t>
   </si>
   <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
     <t>22:53:39</t>
   </si>
   <si>
@@ -76,6 +91,21 @@
     <t>23:23:37</t>
   </si>
   <si>
+    <t>23:49:47</t>
+  </si>
+  <si>
+    <t>09:25:41</t>
+  </si>
+  <si>
+    <t>09:25:54</t>
+  </si>
+  <si>
+    <t>09:26:34</t>
+  </si>
+  <si>
+    <t>09:35:37</t>
+  </si>
+  <si>
     <t>22:56:24</t>
   </si>
   <si>
@@ -97,7 +127,19 @@
     <t>23:23:41</t>
   </si>
   <si>
+    <t>23:53:11</t>
+  </si>
+  <si>
+    <t>09:26:10</t>
+  </si>
+  <si>
+    <t>09:35:41</t>
+  </si>
+  <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>In Library</t>
   </si>
 </sst>
 </file>
@@ -455,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,25 +534,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -518,25 +560,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -544,25 +586,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -570,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -596,25 +638,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -622,25 +664,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -648,25 +690,152 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Roll_Number</t>
   </si>
@@ -40,109 +40,100 @@
     <t>Status</t>
   </si>
   <si>
-    <t>X001X1OZV3</t>
-  </si>
-  <si>
-    <t>BCM24310</t>
-  </si>
-  <si>
-    <t>8902442220225</t>
-  </si>
-  <si>
-    <t>Student X001X1OZV3</t>
-  </si>
-  <si>
-    <t>Student BCM24310</t>
-  </si>
-  <si>
-    <t>Student 8902442220225</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
+    <t>BCA23078</t>
+  </si>
+  <si>
+    <t>BCA23127</t>
+  </si>
+  <si>
+    <t>BCA23089</t>
+  </si>
+  <si>
+    <t>BCA23090</t>
+  </si>
+  <si>
+    <t>BCA23100</t>
+  </si>
+  <si>
+    <t>BCA23087</t>
+  </si>
+  <si>
+    <t>BCA23135</t>
+  </si>
+  <si>
+    <t>DARSHAN</t>
+  </si>
+  <si>
+    <t>VAISHNAVI U K</t>
+  </si>
+  <si>
+    <t>KIRANA SHETTY</t>
+  </si>
+  <si>
+    <t>MAHESH</t>
+  </si>
+  <si>
+    <t>PRASANNA</t>
+  </si>
+  <si>
+    <t>K PRASHASTHI SHETTY</t>
+  </si>
+  <si>
+    <t>Anushri</t>
+  </si>
+  <si>
+    <t>III BCA [B]-Gen</t>
+  </si>
+  <si>
+    <t>III BCA (B)</t>
   </si>
   <si>
     <t>2025-10-15</t>
   </si>
   <si>
-    <t>22:53:39</t>
-  </si>
-  <si>
-    <t>22:58:52</t>
-  </si>
-  <si>
-    <t>23:01:38</t>
-  </si>
-  <si>
-    <t>23:08:21</t>
-  </si>
-  <si>
-    <t>23:08:32</t>
-  </si>
-  <si>
-    <t>23:19:09</t>
-  </si>
-  <si>
-    <t>23:23:37</t>
-  </si>
-  <si>
-    <t>23:49:47</t>
-  </si>
-  <si>
-    <t>09:25:41</t>
-  </si>
-  <si>
-    <t>09:25:54</t>
-  </si>
-  <si>
-    <t>09:26:34</t>
-  </si>
-  <si>
-    <t>09:35:37</t>
-  </si>
-  <si>
-    <t>13:07:44</t>
-  </si>
-  <si>
-    <t>22:56:24</t>
-  </si>
-  <si>
-    <t>23:00:32</t>
-  </si>
-  <si>
-    <t>23:08:15</t>
-  </si>
-  <si>
-    <t>23:08:24</t>
-  </si>
-  <si>
-    <t>23:18:52</t>
-  </si>
-  <si>
-    <t>23:19:18</t>
-  </si>
-  <si>
-    <t>23:23:41</t>
-  </si>
-  <si>
-    <t>23:53:11</t>
-  </si>
-  <si>
-    <t>09:26:10</t>
-  </si>
-  <si>
-    <t>09:35:41</t>
+    <t>21:47:45</t>
+  </si>
+  <si>
+    <t>21:48:13</t>
+  </si>
+  <si>
+    <t>21:48:39</t>
+  </si>
+  <si>
+    <t>21:48:58</t>
+  </si>
+  <si>
+    <t>21:49:15</t>
+  </si>
+  <si>
+    <t>21:49:36</t>
+  </si>
+  <si>
+    <t>21:49:55</t>
+  </si>
+  <si>
+    <t>21:48:00</t>
+  </si>
+  <si>
+    <t>21:48:19</t>
+  </si>
+  <si>
+    <t>21:48:43</t>
+  </si>
+  <si>
+    <t>21:49:01</t>
+  </si>
+  <si>
+    <t>21:49:17</t>
+  </si>
+  <si>
+    <t>21:49:39</t>
+  </si>
+  <si>
+    <t>21:49:59</t>
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>In Library</t>
   </si>
 </sst>
 </file>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,331 +528,181 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
